--- a/data/trans_dic/P64D$andando_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2606406273988908</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4682865219294566</v>
+        <v>0.4682865219294567</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3623419006896356</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1828079432125892</v>
+        <v>0.1939820345771384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3952123353313145</v>
+        <v>0.4008414549164603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3167502361436523</v>
+        <v>0.3061732564772955</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3422074765817251</v>
+        <v>0.3424258285113408</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5387229043420084</v>
+        <v>0.5461615128174634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4200238248920568</v>
+        <v>0.4173193304533435</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2094580650443545</v>
+        <v>0.208234896225555</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.35589853490046</v>
+        <v>0.3574709104252671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2802305858899646</v>
+        <v>0.2778898695470838</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2974559037821782</v>
+        <v>0.2988462457605268</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4488933677518321</v>
+        <v>0.4491918911375379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3460409875622854</v>
+        <v>0.3448379717468843</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2149143875959182</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3417521686041888</v>
+        <v>0.3417521686041889</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2707193873620051</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1791662389024426</v>
+        <v>0.178950908273094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3051374157214521</v>
+        <v>0.3049021592108363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2451138718531432</v>
+        <v>0.2460890409471172</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2532833691064125</v>
+        <v>0.2523088912837811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3822732270689346</v>
+        <v>0.3790102886534926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.298070896798725</v>
+        <v>0.2990377585056163</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.166914115799265</v>
+        <v>0.1673543920412967</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2864980841841767</v>
+        <v>0.2885559948436784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2323283275223203</v>
+        <v>0.2304438425870864</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2427657211305135</v>
+        <v>0.2364140305593979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.361003160378524</v>
+        <v>0.3634567657459628</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2824450173539676</v>
+        <v>0.281121386456112</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2039505689327988</v>
+        <v>0.2026721452595134</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3439127434651108</v>
+        <v>0.3417577440598813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2712941813906655</v>
+        <v>0.2725395615748824</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.244685450644399</v>
+        <v>0.2450897343627116</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3883308036185473</v>
+        <v>0.390524848986262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3015183186840426</v>
+        <v>0.3028381835973666</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32479</v>
+        <v>34465</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67405</v>
+        <v>68365</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>110300</v>
+        <v>106617</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60800</v>
+        <v>60838</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>91881</v>
+        <v>93149</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>146262</v>
+        <v>145320</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>106905</v>
+        <v>106281</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>128157</v>
+        <v>128723</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>243936</v>
+        <v>241898</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151818</v>
+        <v>152528</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>161644</v>
+        <v>161751</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>301222</v>
+        <v>300175</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>111438</v>
+        <v>111304</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>149103</v>
+        <v>148988</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>272229</v>
+        <v>273312</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>157537</v>
+        <v>156931</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>186795</v>
+        <v>185200</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>331044</v>
+        <v>332118</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>98567</v>
+        <v>98827</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>132218</v>
+        <v>133167</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>244414</v>
+        <v>242431</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>143359</v>
+        <v>139608</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166602</v>
+        <v>167734</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>297138</v>
+        <v>295745</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>387620</v>
+        <v>385191</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>509261</v>
+        <v>506070</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>917339</v>
+        <v>921551</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>465040</v>
+        <v>465808</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>575034</v>
+        <v>578283</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1019538</v>
+        <v>1024001</v>
       </c>
     </row>
     <row r="24">
